--- a/QA/testcases/LLS/Pharmacy/L_Phar_Patient_App_Create_PCase_Positive.xlsx
+++ b/QA/testcases/LLS/Pharmacy/L_Phar_Patient_App_Create_PCase_Positive.xlsx
@@ -548,10 +548,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -583,15 +583,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -599,21 +601,6 @@
     <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -629,15 +616,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -651,31 +638,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -696,24 +659,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -726,6 +718,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -754,13 +754,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,13 +862,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,127 +898,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -998,17 +998,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1018,6 +1012,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1054,6 +1063,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1062,51 +1095,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1116,130 +1116,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1645,7 +1645,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -1857,7 +1857,7 @@
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -1895,7 +1895,7 @@
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>

--- a/QA/testcases/LLS/Pharmacy/L_Phar_Patient_App_Create_PCase_Positive.xlsx
+++ b/QA/testcases/LLS/Pharmacy/L_Phar_Patient_App_Create_PCase_Positive.xlsx
@@ -14,6 +14,7 @@
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177">
   <si>
     <t>Step No</t>
   </si>
@@ -226,6 +227,24 @@
   </si>
   <si>
     <t>Verified</t>
+  </si>
+  <si>
+    <t>BACK_BUTTON</t>
+  </si>
+  <si>
+    <t>Click back button</t>
+  </si>
+  <si>
+    <t>Back button clicked</t>
+  </si>
+  <si>
+    <t>ACTION_VIEW_APP_DETAILS</t>
+  </si>
+  <si>
+    <t>PREVIEW_APPLICATION_DATA</t>
+  </si>
+  <si>
+    <t>PRIVIEW_BACK_BUTTON</t>
   </si>
   <si>
     <t>PATIENT_LOGOUT</t>
@@ -591,9 +610,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -608,16 +626,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -631,14 +649,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -653,7 +703,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -666,46 +716,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -718,16 +745,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -754,37 +773,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,91 +923,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -892,54 +959,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1000,9 +1025,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1011,6 +1038,32 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1027,21 +1080,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1064,8 +1102,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1087,18 +1125,16 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1116,134 +1152,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1260,6 +1296,18 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1352,6 +1400,21 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="DataList"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1642,10 +1705,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2275,43 +2338,267 @@
       <c r="A32" s="12">
         <v>31</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" s="15" t="s">
+      <c r="C32" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11" t="s">
+      <c r="E32" s="16"/>
+      <c r="F32" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="G32" s="11" t="s">
+      <c r="G32" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="H32" s="11"/>
+      <c r="H32" s="16"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="12">
         <v>32</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9">
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18">
+        <v>5</v>
+      </c>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="12">
+        <v>33</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="12">
+        <v>34</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" s="21"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="12">
+        <v>35</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18">
+        <v>5</v>
+      </c>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="12">
+        <v>36</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" s="18"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="12">
+        <v>37</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18">
+        <v>1</v>
+      </c>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="12">
+        <v>38</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="12">
+        <v>39</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24">
+        <v>5</v>
+      </c>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="12">
+        <v>40</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="12">
+        <v>41</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="12">
+        <v>42</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24">
+        <v>5</v>
+      </c>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="12">
+        <v>43</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H44" s="11"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="12">
+        <v>44</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9">
         <v>4</v>
       </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3 B4 B7 B32:B33 C2:C3">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3 B4 B7 B44:B45 C2:C3">
       <formula1/>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
@@ -2322,6 +2609,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8 B9:B12 B13:B31">
       <formula1>[2]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32 C32 B33 C33 B34:B35 B36:B38 B40:B43 C34:C35 C36:C43">
+      <formula1>[4]DataList!#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2351,7 +2641,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2359,20 +2649,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -2383,20 +2673,20 @@
         <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
@@ -2404,47 +2694,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -2454,12 +2744,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -2469,17 +2759,17 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="3:3">
@@ -2489,100 +2779,100 @@
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="3:3">
@@ -2592,127 +2882,127 @@
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="67" spans="3:3">
@@ -2722,159 +3012,159 @@
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="97" spans="3:3">
@@ -2884,22 +3174,22 @@
     </row>
     <row r="98" spans="3:3">
       <c r="C98" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="99" spans="3:3">
       <c r="C99" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/QA/testcases/LLS/Pharmacy/L_Phar_Patient_App_Create_PCase_Positive.xlsx
+++ b/QA/testcases/LLS/Pharmacy/L_Phar_Patient_App_Create_PCase_Positive.xlsx
@@ -567,10 +567,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -602,8 +602,62 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -618,101 +672,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -731,8 +694,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -745,8 +738,15 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -773,8 +773,38 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -785,6 +815,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -797,174 +905,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1026,18 +1020,9 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1060,10 +1045,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1080,21 +1063,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1123,6 +1091,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1134,15 +1117,15 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1152,134 +1135,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1296,18 +1279,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1707,8 +1683,8 @@
   <sheetPr/>
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:A45"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2250,7 +2226,7 @@
       <c r="C27" s="9"/>
       <c r="D27" s="14"/>
       <c r="E27" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
@@ -2338,61 +2314,61 @@
       <c r="A32" s="12">
         <v>31</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16" t="s">
+      <c r="E32" s="11"/>
+      <c r="F32" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="G32" s="16" t="s">
+      <c r="G32" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="H32" s="16"/>
+      <c r="H32" s="11"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="12">
         <v>32</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18">
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9">
         <v>5</v>
       </c>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="12">
         <v>33</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="20" t="s">
+      <c r="D34" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20" t="s">
+      <c r="E34" s="12"/>
+      <c r="F34" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G34" s="20" t="s">
+      <c r="G34" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H34" s="21">
+      <c r="H34" s="17">
         <v>3</v>
       </c>
     </row>
@@ -2400,163 +2376,163 @@
       <c r="A35" s="12">
         <v>34</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D35" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22" t="s">
+      <c r="E35" s="13"/>
+      <c r="F35" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G35" s="22" t="s">
+      <c r="G35" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H35" s="21"/>
+      <c r="H35" s="17"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="12">
         <v>35</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18">
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9">
         <v>5</v>
       </c>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="12">
         <v>36</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="23" t="s">
+      <c r="D37" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18" t="s">
+      <c r="E37" s="9"/>
+      <c r="F37" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G37" s="18" t="s">
+      <c r="G37" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H37" s="18"/>
+      <c r="H37" s="9"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="12">
         <v>37</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18">
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9">
         <v>1</v>
       </c>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="12">
         <v>38</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D39" s="26" t="s">
+      <c r="D39" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="12">
         <v>39</v>
       </c>
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24">
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18">
         <v>5</v>
       </c>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="12">
         <v>40</v>
       </c>
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="24" t="s">
+      <c r="C41" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="26" t="s">
+      <c r="D41" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="12">
         <v>41</v>
       </c>
-      <c r="B42" s="24" t="s">
+      <c r="B42" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D42" s="27" t="s">
+      <c r="D42" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="12">
         <v>42</v>
       </c>
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24">
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18">
         <v>5</v>
       </c>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="12">

--- a/QA/testcases/LLS/Pharmacy/L_Phar_Patient_App_Create_PCase_Positive.xlsx
+++ b/QA/testcases/LLS/Pharmacy/L_Phar_Patient_App_Create_PCase_Positive.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27465" windowHeight="13650"/>
+    <workbookView windowWidth="27465" windowHeight="13230"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -244,7 +244,7 @@
     <t>PREVIEW_APPLICATION_DATA</t>
   </si>
   <si>
-    <t>PRIVIEW_BACK_BUTTON</t>
+    <t>PREVIEW_BACK_BUTTON</t>
   </si>
   <si>
     <t>PATIENT_LOGOUT</t>
@@ -567,10 +567,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -602,33 +602,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -656,6 +634,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -671,24 +678,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -703,21 +695,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -745,6 +730,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -773,13 +773,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -791,43 +893,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -839,121 +947,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1019,11 +1019,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1047,46 +1075,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1114,18 +1103,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1135,130 +1135,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1683,8 +1683,8 @@
   <sheetPr/>
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>

--- a/QA/testcases/LLS/Pharmacy/L_Phar_Patient_App_Create_PCase_Positive.xlsx
+++ b/QA/testcases/LLS/Pharmacy/L_Phar_Patient_App_Create_PCase_Positive.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27465" windowHeight="13230"/>
+    <workbookView windowWidth="28680" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -567,9 +567,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -602,8 +602,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -618,9 +632,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -629,20 +643,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -657,30 +657,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -688,21 +665,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -716,7 +679,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -725,15 +687,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -745,6 +699,52 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -773,55 +773,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,127 +953,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1026,32 +1026,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1071,11 +1052,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1098,26 +1085,39 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1135,130 +1135,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1683,8 +1683,8 @@
   <sheetPr/>
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2072,7 +2072,7 @@
       <c r="C19" s="9"/>
       <c r="D19" s="14"/>
       <c r="E19" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
@@ -2154,7 +2154,7 @@
       <c r="C23" s="9"/>
       <c r="D23" s="14"/>
       <c r="E23" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>

--- a/QA/testcases/LLS/Pharmacy/L_Phar_Patient_App_Create_PCase_Positive.xlsx
+++ b/QA/testcases/LLS/Pharmacy/L_Phar_Patient_App_Create_PCase_Positive.xlsx
@@ -568,8 +568,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -602,8 +602,33 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -618,9 +643,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -632,9 +657,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -650,14 +703,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -670,81 +745,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -773,187 +773,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1026,13 +1026,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1048,45 +1052,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1114,10 +1079,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1135,130 +1135,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1683,8 +1683,8 @@
   <sheetPr/>
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -1820,7 +1820,7 @@
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -1896,7 +1896,7 @@
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -1934,7 +1934,7 @@
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>

--- a/QA/testcases/LLS/Pharmacy/L_Phar_Patient_App_Create_PCase_Positive.xlsx
+++ b/QA/testcases/LLS/Pharmacy/L_Phar_Patient_App_Create_PCase_Positive.xlsx
@@ -567,10 +567,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -602,19 +602,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -626,9 +618,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -657,17 +656,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -680,7 +673,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -695,29 +688,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -725,7 +703,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -745,6 +723,28 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -773,121 +773,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -899,61 +947,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1017,15 +1017,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1041,6 +1032,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1052,15 +1061,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1082,20 +1082,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1114,18 +1103,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1135,130 +1135,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1684,7 +1684,7 @@
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A5" sqref="$A5:$XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>

--- a/QA/testcases/LLS/Pharmacy/L_Phar_Patient_App_Create_PCase_Positive.xlsx
+++ b/QA/testcases/LLS/Pharmacy/L_Phar_Patient_App_Create_PCase_Positive.xlsx
@@ -82,7 +82,7 @@
     <t>SSN_FIELD</t>
   </si>
   <si>
-    <t>101-14-2278</t>
+    <t>776-75-5538</t>
   </si>
   <si>
     <t>Enter SSN</t>
@@ -229,7 +229,7 @@
     <t>Verified</t>
   </si>
   <si>
-    <t>BACK_BUTTON</t>
+    <t>GOHOME</t>
   </si>
   <si>
     <t>Click back button</t>
@@ -602,47 +602,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -672,15 +634,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -694,23 +701,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -725,22 +717,30 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -773,6 +773,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -785,19 +815,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -809,7 +875,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,7 +929,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,127 +953,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1017,17 +1017,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1080,6 +1076,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1103,21 +1114,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1135,134 +1135,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1279,6 +1279,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1684,7 +1685,7 @@
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="$A5:$XFD5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2320,7 +2321,7 @@
       <c r="C32" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="16" t="s">
         <v>66</v>
       </c>
       <c r="E32" s="11"/>
@@ -2344,9 +2345,9 @@
       <c r="E33" s="9">
         <v>5</v>
       </c>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="12">
@@ -2368,7 +2369,7 @@
       <c r="G34" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H34" s="17">
+      <c r="H34" s="18">
         <v>3</v>
       </c>
     </row>
@@ -2392,7 +2393,7 @@
       <c r="G35" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H35" s="17"/>
+      <c r="H35" s="18"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="12">
@@ -2444,9 +2445,9 @@
       <c r="E38" s="9">
         <v>1</v>
       </c>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="12">
@@ -2455,84 +2456,84 @@
       <c r="B39" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="12">
         <v>39</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18">
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19">
         <v>5</v>
       </c>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="12">
         <v>40</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="12">
         <v>41</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D42" s="20" t="s">
+      <c r="D42" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="12">
         <v>42</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18">
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19">
         <v>5</v>
       </c>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="12">

--- a/QA/testcases/LLS/Pharmacy/L_Phar_Patient_App_Create_PCase_Positive.xlsx
+++ b/QA/testcases/LLS/Pharmacy/L_Phar_Patient_App_Create_PCase_Positive.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28680" windowHeight="13650"/>
+    <workbookView windowWidth="28680" windowHeight="13230"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
     <t>SSN_FIELD</t>
   </si>
   <si>
-    <t>776-75-5538</t>
+    <t>131-92-6794</t>
   </si>
   <si>
     <t>Enter SSN</t>
@@ -567,12 +567,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -597,6 +597,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -604,9 +611,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -620,15 +627,67 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -642,23 +701,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -685,62 +746,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -773,6 +780,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -785,43 +816,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,132 +954,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1017,13 +1024,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="medium">
+        <color rgb="FFB0B0B0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFB0B0B0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFB0B0B0"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color rgb="FFB0B0B0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1037,11 +1048,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1076,17 +1117,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1099,33 +1136,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1135,134 +1157,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1276,15 +1298,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1745,7 +1770,7 @@
       </c>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" ht="15.75" spans="1:8">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -1765,7 +1790,7 @@
       </c>
       <c r="H3" s="11"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" ht="15.75" spans="1:8">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -1778,7 +1803,7 @@
       <c r="D4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="13" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="12" t="s">
@@ -1790,23 +1815,23 @@
       <c r="H4" s="11"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="13">
+      <c r="A5" s="14">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13" t="s">
+      <c r="E5" s="14"/>
+      <c r="F5" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="14" t="s">
         <v>24</v>
       </c>
       <c r="H5" s="11"/>
@@ -1828,7 +1853,7 @@
       <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="13">
+      <c r="A7" s="14">
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -1837,7 +1862,7 @@
       <c r="C7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="15" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="9"/>
@@ -1857,7 +1882,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="9"/>
-      <c r="D8" s="14"/>
+      <c r="D8" s="15"/>
       <c r="E8" s="9">
         <v>1</v>
       </c>
@@ -1866,7 +1891,7 @@
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="13">
+      <c r="A9" s="14">
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -1875,7 +1900,7 @@
       <c r="C9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="16" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="11"/>
@@ -1904,7 +1929,7 @@
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="13">
+      <c r="A11" s="14">
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
@@ -1913,7 +1938,7 @@
       <c r="C11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="16" t="s">
         <v>31</v>
       </c>
       <c r="E11" s="11"/>
@@ -1951,7 +1976,7 @@
       <c r="C13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="15" t="s">
         <v>34</v>
       </c>
       <c r="E13" s="9"/>
@@ -1969,7 +1994,7 @@
       <c r="C14" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="16" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="11"/>
@@ -1991,7 +2016,7 @@
       <c r="C15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="15" t="s">
         <v>38</v>
       </c>
       <c r="E15" s="9"/>
@@ -2009,7 +2034,7 @@
       <c r="C16" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="16" t="s">
         <v>39</v>
       </c>
       <c r="E16" s="11"/>
@@ -2031,7 +2056,7 @@
       <c r="C17" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E17" s="9">
@@ -2051,7 +2076,7 @@
       <c r="C18" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="16" t="s">
         <v>41</v>
       </c>
       <c r="E18" s="11"/>
@@ -2071,7 +2096,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="9"/>
-      <c r="D19" s="14"/>
+      <c r="D19" s="15"/>
       <c r="E19" s="9">
         <v>5</v>
       </c>
@@ -2089,7 +2114,7 @@
       <c r="C20" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="16" t="s">
         <v>45</v>
       </c>
       <c r="E20" s="11" t="s">
@@ -2109,7 +2134,7 @@
       <c r="C21" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="15" t="s">
         <v>48</v>
       </c>
       <c r="E21" s="9" t="s">
@@ -2133,7 +2158,7 @@
       <c r="C22" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="16" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="11"/>
@@ -2153,7 +2178,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="9"/>
-      <c r="D23" s="14"/>
+      <c r="D23" s="15"/>
       <c r="E23" s="9">
         <v>5</v>
       </c>
@@ -2171,7 +2196,7 @@
       <c r="C24" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="16" t="s">
         <v>52</v>
       </c>
       <c r="E24" s="11"/>
@@ -2189,7 +2214,7 @@
       <c r="C25" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="15" t="s">
         <v>53</v>
       </c>
       <c r="E25" s="9" t="s">
@@ -2209,7 +2234,7 @@
       <c r="C26" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="16" t="s">
         <v>52</v>
       </c>
       <c r="E26" s="11"/>
@@ -2225,7 +2250,7 @@
         <v>11</v>
       </c>
       <c r="C27" s="9"/>
-      <c r="D27" s="14"/>
+      <c r="D27" s="15"/>
       <c r="E27" s="9">
         <v>35</v>
       </c>
@@ -2241,7 +2266,7 @@
         <v>55</v>
       </c>
       <c r="C28" s="11"/>
-      <c r="D28" s="15"/>
+      <c r="D28" s="16"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11" t="s">
         <v>56</v>
@@ -2259,7 +2284,7 @@
         <v>11</v>
       </c>
       <c r="C29" s="9"/>
-      <c r="D29" s="14"/>
+      <c r="D29" s="15"/>
       <c r="E29" s="9">
         <v>15</v>
       </c>
@@ -2277,7 +2302,7 @@
       <c r="C30" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="16" t="s">
         <v>59</v>
       </c>
       <c r="E30" s="11"/>
@@ -2299,7 +2324,7 @@
       <c r="C31" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="15" t="s">
         <v>63</v>
       </c>
       <c r="E31" s="9"/>
@@ -2318,10 +2343,10 @@
       <c r="B32" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="17" t="s">
         <v>66</v>
       </c>
       <c r="E32" s="11"/>
@@ -2345,9 +2370,9 @@
       <c r="E33" s="9">
         <v>5</v>
       </c>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="12">
@@ -2369,7 +2394,7 @@
       <c r="G34" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H34" s="18">
+      <c r="H34" s="19">
         <v>3</v>
       </c>
     </row>
@@ -2377,23 +2402,23 @@
       <c r="A35" s="12">
         <v>34</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13" t="s">
+      <c r="E35" s="14"/>
+      <c r="F35" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G35" s="13" t="s">
+      <c r="G35" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H35" s="18"/>
+      <c r="H35" s="19"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="12">
@@ -2421,7 +2446,7 @@
       <c r="C37" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="D37" s="15" t="s">
         <v>25</v>
       </c>
       <c r="E37" s="9"/>
@@ -2445,95 +2470,95 @@
       <c r="E38" s="9">
         <v>1</v>
       </c>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="12">
         <v>38</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="12">
         <v>39</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19">
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20">
         <v>5</v>
       </c>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="12">
         <v>40</v>
       </c>
-      <c r="B41" s="19" t="s">
+      <c r="B41" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="D41" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="12">
         <v>41</v>
       </c>
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="C42" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D42" s="21" t="s">
+      <c r="D42" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="12">
         <v>42</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="B43" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19">
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20">
         <v>5</v>
       </c>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="12">
@@ -2545,7 +2570,7 @@
       <c r="C44" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="D44" s="16" t="s">
         <v>72</v>
       </c>
       <c r="E44" s="11"/>
